--- a/statistics/Worksheets for calculations.xlsx
+++ b/statistics/Worksheets for calculations.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandipto.sanyal\OneDrive - Accenture\Documents\Study materials\AMPBA\git repository\ampba\foundation term\ampba\statistics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandipto.sanyal\OneDrive - Accenture\Documents\Study materials\AMPBA\git repository\ampba\conceptual examples\statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627A8DC4-D707-4B0E-B97E-DFDCE8CAB9FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F8E38A-61E9-43B1-AD1C-C1F25B79BE34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cricketer Bayes theorem" sheetId="1" r:id="rId1"/>
+    <sheet name="Covariance" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Cricketer Bayes theorem'!$A$1:$I$12</definedName>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="30">
   <si>
     <t>Smokes</t>
   </si>
@@ -75,6 +76,57 @@
   </si>
   <si>
     <t>P(Not Character | Not Cricketer)</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>5.X</t>
+  </si>
+  <si>
+    <t>6.Y</t>
+  </si>
+  <si>
+    <t>E(X)</t>
+  </si>
+  <si>
+    <t>E(Y)</t>
+  </si>
+  <si>
+    <t>E(5.X)</t>
+  </si>
+  <si>
+    <t>E(6.Y)</t>
+  </si>
+  <si>
+    <t>(X - E(X))</t>
+  </si>
+  <si>
+    <t>(Y-E(Y))</t>
+  </si>
+  <si>
+    <t>COV(X,Y)</t>
+  </si>
+  <si>
+    <t>(X-E(X))*(Y-E(Y))</t>
+  </si>
+  <si>
+    <t>(5.X-E(5.X))*(6.Y-E(6.Y))</t>
+  </si>
+  <si>
+    <t>COV(5.X,6.Y)</t>
+  </si>
+  <si>
+    <t>Scaling of Covariances</t>
+  </si>
+  <si>
+    <t>Corr(X,Y)</t>
+  </si>
+  <si>
+    <t>Corr(5.X,6.Y)</t>
   </si>
 </sst>
 </file>
@@ -212,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -242,6 +294,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -525,7 +580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -798,5 +853,509 @@
     <mergeCell ref="E4:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA93259A-4DDC-4814-BC40-2FEEB34B86DD}">
+  <dimension ref="A1:L15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="16" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <f ca="1">RANDBETWEEN(5,15)</f>
+        <v>11</v>
+      </c>
+      <c r="B2" s="2">
+        <f ca="1">RANDBETWEEN(5,15)</f>
+        <v>11</v>
+      </c>
+      <c r="C2" s="2">
+        <f ca="1">5*A2</f>
+        <v>55</v>
+      </c>
+      <c r="D2" s="2">
+        <f ca="1">6*B2</f>
+        <v>66</v>
+      </c>
+      <c r="E2" s="2">
+        <f ca="1">AVERAGE(A$2:A$9)</f>
+        <v>10.625</v>
+      </c>
+      <c r="F2" s="2">
+        <f ca="1">AVERAGE(B$2:B$9)</f>
+        <v>9.375</v>
+      </c>
+      <c r="G2" s="2">
+        <f ca="1">AVERAGE(C$2:C$9)</f>
+        <v>53.125</v>
+      </c>
+      <c r="H2" s="2">
+        <f ca="1">AVERAGE(D$2:D$9)</f>
+        <v>56.25</v>
+      </c>
+      <c r="I2" s="2">
+        <f ca="1">A2-E2</f>
+        <v>0.375</v>
+      </c>
+      <c r="J2" s="2">
+        <f ca="1">B2-F2</f>
+        <v>1.625</v>
+      </c>
+      <c r="K2" s="2">
+        <f ca="1">I2*J2</f>
+        <v>0.609375</v>
+      </c>
+      <c r="L2" s="2">
+        <f ca="1">(C2-G2)*(D2-H2)</f>
+        <v>18.28125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <f t="shared" ref="A3:B9" ca="1" si="0">RANDBETWEEN(5,15)</f>
+        <v>12</v>
+      </c>
+      <c r="B3" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C3" s="2">
+        <f ca="1">5*A3</f>
+        <v>60</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D9" ca="1" si="1">6*B3</f>
+        <v>66</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:F9" ca="1" si="2">AVERAGE(A$2:A$9)</f>
+        <v>10.625</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.375</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G9" ca="1" si="3">AVERAGE(C$2:C$9)</f>
+        <v>53.125</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" ref="H3:H9" ca="1" si="4">AVERAGE(D$2:D$9)</f>
+        <v>56.25</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" ref="I3:I9" ca="1" si="5">A3-E3</f>
+        <v>1.375</v>
+      </c>
+      <c r="J3" s="2">
+        <f t="shared" ref="J3:J9" ca="1" si="6">B3-F3</f>
+        <v>1.625</v>
+      </c>
+      <c r="K3" s="2">
+        <f t="shared" ref="K3:K9" ca="1" si="7">I3*J3</f>
+        <v>2.234375</v>
+      </c>
+      <c r="L3" s="2">
+        <f t="shared" ref="L3:L9" ca="1" si="8">(C3-G3)*(D3-H3)</f>
+        <v>67.03125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B4" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C4" s="2">
+        <f ca="1">5*A4</f>
+        <v>70</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>10.625</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.375</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>53.125</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>56.25</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>3.375</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>2.625</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" ca="1" si="7"/>
+        <v>8.859375</v>
+      </c>
+      <c r="L4" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>265.78125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B5" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C5" s="2">
+        <f ca="1">5*A5</f>
+        <v>60</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>10.625</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.375</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>53.125</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>56.25</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.375</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>-1.375</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" ca="1" si="7"/>
+        <v>-1.890625</v>
+      </c>
+      <c r="L5" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>-56.71875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C6" s="2">
+        <f ca="1">5*A6</f>
+        <v>30</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>10.625</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.375</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>53.125</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>56.25</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>-4.625</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>2.625</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" ca="1" si="7"/>
+        <v>-12.140625</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>-364.21875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B7" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C7" s="2">
+        <f ca="1">5*A7</f>
+        <v>35</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>10.625</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.375</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>53.125</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>56.25</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>-3.625</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>-3.375</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" ca="1" si="7"/>
+        <v>12.234375</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>367.03125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B8" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C8" s="2">
+        <f ca="1">5*A8</f>
+        <v>60</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>10.625</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.375</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>53.125</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>56.25</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.375</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>-4.375</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" ca="1" si="7"/>
+        <v>-6.015625</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>-180.46875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B9" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C9" s="2">
+        <f ca="1">5*A9</f>
+        <v>55</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>10.625</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.375</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>53.125</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>56.25</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.375</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.625</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.234375</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>7.03125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2">
+        <f ca="1">AVERAGE(K2:K9)</f>
+        <v>0.515625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="2">
+        <f ca="1">AVERAGE(L2:L9)</f>
+        <v>15.46875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="2">
+        <f ca="1">B12/B11</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="2">
+        <f ca="1">B11/(_xlfn.STDEV.P(A2:A9)*_xlfn.STDEV.P(B2:B9))</f>
+        <v>7.9518072289156638E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="2">
+        <f ca="1">B12/(_xlfn.STDEV.P(C2:C9)*_xlfn.STDEV.P(D2:D9))</f>
+        <v>7.9518072289156624E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/statistics/Worksheets for calculations.xlsx
+++ b/statistics/Worksheets for calculations.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandipto.sanyal\OneDrive - Accenture\Documents\Study materials\AMPBA\git repository\ampba\conceptual examples\statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F8E38A-61E9-43B1-AD1C-C1F25B79BE34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5307A9-66FA-44EE-B6DB-C722F127D19B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cricketer Bayes theorem" sheetId="1" r:id="rId1"/>
     <sheet name="Covariance" sheetId="2" r:id="rId2"/>
+    <sheet name="Visualize CLT" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Cricketer Bayes theorem'!$A$1:$I$12</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="82">
   <si>
     <t>Smokes</t>
   </si>
@@ -127,6 +128,162 @@
   </si>
   <si>
     <t>Corr(5.X,6.Y)</t>
+  </si>
+  <si>
+    <t>Person names</t>
+  </si>
+  <si>
+    <t>Person age</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>P7</t>
+  </si>
+  <si>
+    <t>P8</t>
+  </si>
+  <si>
+    <t>P9</t>
+  </si>
+  <si>
+    <t>P10</t>
+  </si>
+  <si>
+    <t>P11</t>
+  </si>
+  <si>
+    <t>P12</t>
+  </si>
+  <si>
+    <t>P13</t>
+  </si>
+  <si>
+    <t>P14</t>
+  </si>
+  <si>
+    <t>P15</t>
+  </si>
+  <si>
+    <t>P16</t>
+  </si>
+  <si>
+    <t>P17</t>
+  </si>
+  <si>
+    <t>P18</t>
+  </si>
+  <si>
+    <t>P19</t>
+  </si>
+  <si>
+    <t>P20</t>
+  </si>
+  <si>
+    <t>P21</t>
+  </si>
+  <si>
+    <t>P22</t>
+  </si>
+  <si>
+    <t>P23</t>
+  </si>
+  <si>
+    <t>P24</t>
+  </si>
+  <si>
+    <t>P25</t>
+  </si>
+  <si>
+    <t>P26</t>
+  </si>
+  <si>
+    <t>P27</t>
+  </si>
+  <si>
+    <t>P28</t>
+  </si>
+  <si>
+    <t>P29</t>
+  </si>
+  <si>
+    <t>P30</t>
+  </si>
+  <si>
+    <t>P31</t>
+  </si>
+  <si>
+    <t>P32</t>
+  </si>
+  <si>
+    <t>P33</t>
+  </si>
+  <si>
+    <t>P34</t>
+  </si>
+  <si>
+    <t>P35</t>
+  </si>
+  <si>
+    <t>P36</t>
+  </si>
+  <si>
+    <t>P37</t>
+  </si>
+  <si>
+    <t>P38</t>
+  </si>
+  <si>
+    <t>P39</t>
+  </si>
+  <si>
+    <t>P40</t>
+  </si>
+  <si>
+    <t>P41</t>
+  </si>
+  <si>
+    <t>P42</t>
+  </si>
+  <si>
+    <t>P43</t>
+  </si>
+  <si>
+    <t>P44</t>
+  </si>
+  <si>
+    <t>P45</t>
+  </si>
+  <si>
+    <t>P46</t>
+  </si>
+  <si>
+    <t>P47</t>
+  </si>
+  <si>
+    <t>P48</t>
+  </si>
+  <si>
+    <t>P49</t>
+  </si>
+  <si>
+    <t>P50</t>
   </si>
 </sst>
 </file>
@@ -283,6 +440,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -294,9 +454,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -619,11 +776,11 @@
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="10"/>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -663,7 +820,7 @@
       <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="15" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="7" t="s">
@@ -695,7 +852,7 @@
       <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="14"/>
+      <c r="E5" s="15"/>
       <c r="F5" s="3" t="s">
         <v>10</v>
       </c>
@@ -725,7 +882,7 @@
       <c r="D6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="14"/>
+      <c r="E6" s="15"/>
       <c r="F6" s="3" t="s">
         <v>11</v>
       </c>
@@ -755,7 +912,7 @@
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="15"/>
+      <c r="E7" s="16"/>
       <c r="F7" s="3" t="s">
         <v>12</v>
       </c>
@@ -861,7 +1018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA93259A-4DDC-4814-BC40-2FEEB34B86DD}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A11" sqref="A11:A15"/>
     </sheetView>
   </sheetViews>
@@ -871,7 +1028,7 @@
     <col min="12" max="12" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="16" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -912,401 +1069,401 @@
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <f ca="1">RANDBETWEEN(5,15)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2">
         <f ca="1">RANDBETWEEN(5,15)</f>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">5*A2</f>
-        <v>55</v>
+        <f t="shared" ref="C2:C9" ca="1" si="0">5*A2</f>
+        <v>50</v>
       </c>
       <c r="D2" s="2">
         <f ca="1">6*B2</f>
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2">
         <f ca="1">AVERAGE(A$2:A$9)</f>
-        <v>10.625</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2">
         <f ca="1">AVERAGE(B$2:B$9)</f>
-        <v>9.375</v>
+        <v>9.875</v>
       </c>
       <c r="G2" s="2">
         <f ca="1">AVERAGE(C$2:C$9)</f>
-        <v>53.125</v>
+        <v>50</v>
       </c>
       <c r="H2" s="2">
         <f ca="1">AVERAGE(D$2:D$9)</f>
-        <v>56.25</v>
+        <v>59.25</v>
       </c>
       <c r="I2" s="2">
         <f ca="1">A2-E2</f>
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="J2" s="2">
         <f ca="1">B2-F2</f>
-        <v>1.625</v>
+        <v>-4.875</v>
       </c>
       <c r="K2" s="2">
         <f ca="1">I2*J2</f>
-        <v>0.609375</v>
+        <v>0</v>
       </c>
       <c r="L2" s="2">
         <f ca="1">(C2-G2)*(D2-H2)</f>
-        <v>18.28125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <f t="shared" ref="A3:B9" ca="1" si="0">RANDBETWEEN(5,15)</f>
-        <v>12</v>
+        <f t="shared" ref="A3:B9" ca="1" si="1">RANDBETWEEN(5,15)</f>
+        <v>6</v>
       </c>
       <c r="B3" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">5*A3</f>
-        <v>60</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>30</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D9" ca="1" si="1">6*B3</f>
-        <v>66</v>
+        <f t="shared" ref="D3:D9" ca="1" si="2">6*B3</f>
+        <v>54</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:F9" ca="1" si="2">AVERAGE(A$2:A$9)</f>
-        <v>10.625</v>
+        <f t="shared" ref="E3:F9" ca="1" si="3">AVERAGE(A$2:A$9)</f>
+        <v>10</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.375</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>9.875</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G9" ca="1" si="3">AVERAGE(C$2:C$9)</f>
-        <v>53.125</v>
+        <f t="shared" ref="G3:G9" ca="1" si="4">AVERAGE(C$2:C$9)</f>
+        <v>50</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" ref="H3:H9" ca="1" si="4">AVERAGE(D$2:D$9)</f>
-        <v>56.25</v>
+        <f t="shared" ref="H3:H9" ca="1" si="5">AVERAGE(D$2:D$9)</f>
+        <v>59.25</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" ref="I3:I9" ca="1" si="5">A3-E3</f>
-        <v>1.375</v>
+        <f t="shared" ref="I3:I9" ca="1" si="6">A3-E3</f>
+        <v>-4</v>
       </c>
       <c r="J3" s="2">
-        <f t="shared" ref="J3:J9" ca="1" si="6">B3-F3</f>
-        <v>1.625</v>
+        <f t="shared" ref="J3:J9" ca="1" si="7">B3-F3</f>
+        <v>-0.875</v>
       </c>
       <c r="K3" s="2">
-        <f t="shared" ref="K3:K9" ca="1" si="7">I3*J3</f>
-        <v>2.234375</v>
+        <f t="shared" ref="K3:K9" ca="1" si="8">I3*J3</f>
+        <v>3.5</v>
       </c>
       <c r="L3" s="2">
-        <f t="shared" ref="L3:L9" ca="1" si="8">(C3-G3)*(D3-H3)</f>
-        <v>67.03125</v>
+        <f t="shared" ref="L3:L9" ca="1" si="9">(C3-G3)*(D3-H3)</f>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>12</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">5*A4</f>
-        <v>70</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>35</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>72</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>10.625</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.375</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>9.875</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>53.125</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>50</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>56.25</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>59.25</v>
       </c>
       <c r="I4" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>3.375</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>-3</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>2.625</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2.125</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>8.859375</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>-6.375</v>
       </c>
       <c r="L4" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>265.78125</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>-191.25</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>14</v>
       </c>
       <c r="B5" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>13</v>
       </c>
       <c r="C5" s="2">
-        <f ca="1">5*A5</f>
-        <v>60</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>70</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>78</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>10.625</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.375</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>9.875</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>53.125</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>50</v>
       </c>
       <c r="H5" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>56.25</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>59.25</v>
       </c>
       <c r="I5" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.375</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
       </c>
       <c r="J5" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>-1.375</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>3.125</v>
       </c>
       <c r="K5" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>-1.890625</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>12.5</v>
       </c>
       <c r="L5" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>-56.71875</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B6" s="2">
+        <f t="shared" ca="1" si="1"/>
         <v>6</v>
       </c>
-      <c r="B6" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
-      </c>
       <c r="C6" s="2">
-        <f ca="1">5*A6</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>65</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>36</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>10.625</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.375</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>9.875</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>53.125</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>50</v>
       </c>
       <c r="H6" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>56.25</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>59.25</v>
       </c>
       <c r="I6" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>-4.625</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
       </c>
       <c r="J6" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>2.625</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>-3.875</v>
       </c>
       <c r="K6" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>-12.140625</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>-11.625</v>
       </c>
       <c r="L6" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>-364.21875</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>-348.75</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>13</v>
       </c>
       <c r="B7" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
       </c>
       <c r="C7" s="2">
-        <f ca="1">5*A7</f>
-        <v>35</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>65</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>30</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>10.625</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.375</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>9.875</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>53.125</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>50</v>
       </c>
       <c r="H7" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>56.25</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>59.25</v>
       </c>
       <c r="I7" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>-3.625</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
       </c>
       <c r="J7" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>-3.375</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>-4.875</v>
       </c>
       <c r="K7" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>12.234375</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>-14.625</v>
       </c>
       <c r="L7" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>367.03125</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>-438.75</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
       </c>
       <c r="B8" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>14</v>
       </c>
       <c r="C8" s="2">
-        <f ca="1">5*A8</f>
-        <v>60</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>30</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>84</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>10.625</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.375</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>9.875</v>
       </c>
       <c r="G8" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>53.125</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>50</v>
       </c>
       <c r="H8" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>56.25</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>59.25</v>
       </c>
       <c r="I8" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.375</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>-4</v>
       </c>
       <c r="J8" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>-4.375</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>4.125</v>
       </c>
       <c r="K8" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>-6.015625</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>-16.5</v>
       </c>
       <c r="L8" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>-180.46875</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>-495</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>11</v>
       </c>
       <c r="B9" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" ca="1" si="3"/>
         <v>10</v>
       </c>
-      <c r="C9" s="2">
-        <f ca="1">5*A9</f>
-        <v>55</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="E9" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>10.625</v>
-      </c>
       <c r="F9" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.375</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>9.875</v>
       </c>
       <c r="G9" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>53.125</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>50</v>
       </c>
       <c r="H9" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>56.25</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>59.25</v>
       </c>
       <c r="I9" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.375</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="J9" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.625</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>5.125</v>
       </c>
       <c r="K9" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.234375</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>5.125</v>
       </c>
       <c r="L9" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>7.03125</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>153.75</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -1315,7 +1472,7 @@
       </c>
       <c r="B11" s="2">
         <f ca="1">AVERAGE(K2:K9)</f>
-        <v>0.515625</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -1324,7 +1481,7 @@
       </c>
       <c r="B12" s="2">
         <f ca="1">AVERAGE(L2:L9)</f>
-        <v>15.46875</v>
+        <v>-105</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -1342,7 +1499,7 @@
       </c>
       <c r="B14" s="2">
         <f ca="1">B11/(_xlfn.STDEV.P(A2:A9)*_xlfn.STDEV.P(B2:B9))</f>
-        <v>7.9518072289156638E-2</v>
+        <v>-0.29213459625015248</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -1351,7 +1508,481 @@
       </c>
       <c r="B15" s="2">
         <f ca="1">B12/(_xlfn.STDEV.P(C2:C9)*_xlfn.STDEV.P(D2:D9))</f>
-        <v>7.9518072289156624E-2</v>
+        <v>-0.29213459625015242</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03524DE5-457F-4CB6-8849-2C1A00F31AA8}">
+  <dimension ref="A1:B51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2">
+        <f ca="1">RANDBETWEEN(0,100)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B51" ca="1" si="0">RANDBETWEEN(0,100)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ca="1" si="0"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ca="1" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ca="1" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ca="1" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ca="1" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ca="1" si="0"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ca="1" si="0"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ca="1" si="0"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ca="1" si="0"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ca="1" si="0"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ca="1" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ca="1" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ca="1" si="0"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ca="1" si="0"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ca="1" si="0"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ca="1" si="0"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ca="1" si="0"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ca="1" si="0"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ca="1" si="0"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ca="1" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ca="1" si="0"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ca="1" si="0"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ca="1" si="0"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ca="1" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ca="1" si="0"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ca="1" si="0"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ca="1" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39">
+        <f t="shared" ca="1" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40">
+        <f t="shared" ca="1" si="0"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41">
+        <f t="shared" ca="1" si="0"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42">
+        <f t="shared" ca="1" si="0"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43">
+        <f t="shared" ca="1" si="0"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44">
+        <f t="shared" ca="1" si="0"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45">
+        <f t="shared" ca="1" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46">
+        <f t="shared" ca="1" si="0"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47">
+        <f t="shared" ca="1" si="0"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>78</v>
+      </c>
+      <c r="B48">
+        <f t="shared" ca="1" si="0"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49">
+        <f t="shared" ca="1" si="0"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>80</v>
+      </c>
+      <c r="B50">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>81</v>
+      </c>
+      <c r="B51">
+        <f t="shared" ca="1" si="0"/>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
